--- a/data/DICE014-Estratos.xlsx
+++ b/data/DICE014-Estratos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="460" windowWidth="13500" windowHeight="15920" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="15960" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2009" sheetId="4" r:id="rId1"/>
@@ -1117,7 +1117,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="229" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$€-2]\ * #,##0.00_ ;_ [$€-2]\ * \-#,##0.00_ ;_ [$€-2]\ * &quot;-&quot;??_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1975,7 +1975,7 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="229" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2210,33 +2210,6 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2300,6 +2273,48 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2318,21 +2333,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2343,48 +2343,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2449,6 +2407,48 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3026,211 +3026,211 @@
     <row r="1" spans="1:26" s="52" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:26" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="53"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="155" t="s">
+      <c r="B2" s="137"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="146" t="s">
         <v>301</v>
       </c>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="157"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="148"/>
     </row>
     <row r="3" spans="1:26" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="158" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="149" t="s">
         <v>302</v>
       </c>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="160"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="151"/>
     </row>
     <row r="4" spans="1:26" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="53"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="158" t="s">
+      <c r="B4" s="140"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="149" t="s">
         <v>303</v>
       </c>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="160"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="150"/>
+      <c r="Y4" s="150"/>
+      <c r="Z4" s="151"/>
     </row>
     <row r="5" spans="1:26" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="151"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
       <c r="F5" s="48"/>
       <c r="Z5" s="49"/>
     </row>
     <row r="6" spans="1:26" s="47" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="161" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="152" t="s">
         <v>304</v>
       </c>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="162"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="162"/>
-      <c r="S6" s="162"/>
-      <c r="T6" s="162"/>
-      <c r="U6" s="162"/>
-      <c r="V6" s="162"/>
-      <c r="W6" s="162"/>
-      <c r="X6" s="162"/>
-      <c r="Y6" s="162"/>
-      <c r="Z6" s="163"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="153"/>
+      <c r="N6" s="153"/>
+      <c r="O6" s="153"/>
+      <c r="P6" s="153"/>
+      <c r="Q6" s="153"/>
+      <c r="R6" s="153"/>
+      <c r="S6" s="153"/>
+      <c r="T6" s="153"/>
+      <c r="U6" s="153"/>
+      <c r="V6" s="153"/>
+      <c r="W6" s="153"/>
+      <c r="X6" s="153"/>
+      <c r="Y6" s="153"/>
+      <c r="Z6" s="154"/>
     </row>
     <row r="7" spans="1:26" s="47" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="53"/>
-      <c r="B7" s="152"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="164" t="s">
+      <c r="B7" s="143"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="155" t="s">
         <v>300</v>
       </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="165"/>
-      <c r="T7" s="165"/>
-      <c r="U7" s="165"/>
-      <c r="V7" s="165"/>
-      <c r="W7" s="165"/>
-      <c r="X7" s="165"/>
-      <c r="Y7" s="165"/>
-      <c r="Z7" s="166"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="156"/>
+      <c r="W7" s="156"/>
+      <c r="X7" s="156"/>
+      <c r="Y7" s="156"/>
+      <c r="Z7" s="157"/>
     </row>
     <row r="8" spans="1:26" s="35" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="54"/>
-      <c r="B8" s="143" t="s">
+      <c r="B8" s="164" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="161" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="161" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="140" t="s">
+      <c r="E8" s="161" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="141" t="s">
+      <c r="F8" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="140" t="s">
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="161" t="s">
         <v>149</v>
       </c>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="140"/>
-      <c r="R8" s="140"/>
-      <c r="S8" s="140"/>
-      <c r="T8" s="141" t="s">
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
+      <c r="Q8" s="161"/>
+      <c r="R8" s="161"/>
+      <c r="S8" s="161"/>
+      <c r="T8" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
-      <c r="W8" s="141"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="142"/>
+      <c r="U8" s="162"/>
+      <c r="V8" s="162"/>
+      <c r="W8" s="162"/>
+      <c r="X8" s="162"/>
+      <c r="Y8" s="162"/>
+      <c r="Z8" s="163"/>
     </row>
     <row r="9" spans="1:26" s="3" customFormat="1" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
       <c r="F9" s="37" t="s">
         <v>267</v>
       </c>
@@ -10043,12 +10043,12 @@
     </row>
     <row r="131" spans="1:26" s="2" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A131" s="50"/>
-      <c r="B131" s="138" t="s">
+      <c r="B131" s="159" t="s">
         <v>305</v>
       </c>
-      <c r="C131" s="139"/>
-      <c r="D131" s="139"/>
-      <c r="E131" s="139"/>
+      <c r="C131" s="160"/>
+      <c r="D131" s="160"/>
+      <c r="E131" s="160"/>
       <c r="F131" s="59">
         <f t="shared" ref="F131:Z131" si="0">SUM(F10:F130)</f>
         <v>110711</v>
@@ -10135,21 +10135,15 @@
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="B132" s="137" t="s">
+      <c r="B132" s="158" t="s">
         <v>309</v>
       </c>
-      <c r="C132" s="137"/>
-      <c r="D132" s="137"/>
-      <c r="E132" s="137"/>
+      <c r="C132" s="158"/>
+      <c r="D132" s="158"/>
+      <c r="E132" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:E7"/>
-    <mergeCell ref="F2:Z2"/>
-    <mergeCell ref="F3:Z3"/>
-    <mergeCell ref="F4:Z4"/>
-    <mergeCell ref="F6:Z6"/>
-    <mergeCell ref="F7:Z7"/>
     <mergeCell ref="B132:E132"/>
     <mergeCell ref="B131:E131"/>
     <mergeCell ref="M8:S8"/>
@@ -10159,6 +10153,12 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:L8"/>
+    <mergeCell ref="B2:E7"/>
+    <mergeCell ref="F2:Z2"/>
+    <mergeCell ref="F3:Z3"/>
+    <mergeCell ref="F4:Z4"/>
+    <mergeCell ref="F6:Z6"/>
+    <mergeCell ref="F7:Z7"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -10191,224 +10191,224 @@
   <sheetData>
     <row r="1" spans="1:29" s="71" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:29" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="146"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="155" t="s">
+      <c r="B2" s="137"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="146" t="s">
         <v>301</v>
       </c>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="156"/>
-      <c r="Q2" s="156"/>
-      <c r="R2" s="156"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156"/>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="157"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="147"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="148"/>
     </row>
     <row r="3" spans="1:29" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="149"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="158" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="149" t="s">
         <v>302</v>
       </c>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
-      <c r="K3" s="159"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="159"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="160"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
+      <c r="L3" s="150"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="150"/>
+      <c r="T3" s="150"/>
+      <c r="U3" s="150"/>
+      <c r="V3" s="150"/>
+      <c r="W3" s="150"/>
+      <c r="X3" s="150"/>
+      <c r="Y3" s="150"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="150"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="151"/>
     </row>
     <row r="4" spans="1:29" s="47" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="149"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="158" t="s">
+      <c r="B4" s="140"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="149" t="s">
         <v>303</v>
       </c>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="160"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="150"/>
+      <c r="Y4" s="150"/>
+      <c r="Z4" s="150"/>
+      <c r="AA4" s="150"/>
+      <c r="AB4" s="150"/>
+      <c r="AC4" s="151"/>
     </row>
     <row r="5" spans="1:29" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="149"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="151"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="142"/>
       <c r="F5" s="48"/>
       <c r="AC5" s="49"/>
     </row>
     <row r="6" spans="1:29" s="47" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="149"/>
-      <c r="C6" s="150"/>
-      <c r="D6" s="150"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="161" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="152" t="s">
         <v>304</v>
       </c>
-      <c r="G6" s="162"/>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="162"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="162"/>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="162"/>
-      <c r="S6" s="162"/>
-      <c r="T6" s="162"/>
-      <c r="U6" s="162"/>
-      <c r="V6" s="162"/>
-      <c r="W6" s="162"/>
-      <c r="X6" s="162"/>
-      <c r="Y6" s="162"/>
-      <c r="Z6" s="162"/>
-      <c r="AA6" s="162"/>
-      <c r="AB6" s="162"/>
-      <c r="AC6" s="163"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="153"/>
+      <c r="N6" s="153"/>
+      <c r="O6" s="153"/>
+      <c r="P6" s="153"/>
+      <c r="Q6" s="153"/>
+      <c r="R6" s="153"/>
+      <c r="S6" s="153"/>
+      <c r="T6" s="153"/>
+      <c r="U6" s="153"/>
+      <c r="V6" s="153"/>
+      <c r="W6" s="153"/>
+      <c r="X6" s="153"/>
+      <c r="Y6" s="153"/>
+      <c r="Z6" s="153"/>
+      <c r="AA6" s="153"/>
+      <c r="AB6" s="153"/>
+      <c r="AC6" s="154"/>
     </row>
     <row r="7" spans="1:29" s="47" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="152"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="164" t="s">
+      <c r="B7" s="143"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="155" t="s">
         <v>300</v>
       </c>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="165"/>
-      <c r="Q7" s="165"/>
-      <c r="R7" s="165"/>
-      <c r="S7" s="165"/>
-      <c r="T7" s="165"/>
-      <c r="U7" s="165"/>
-      <c r="V7" s="165"/>
-      <c r="W7" s="165"/>
-      <c r="X7" s="165"/>
-      <c r="Y7" s="165"/>
-      <c r="Z7" s="165"/>
-      <c r="AA7" s="165"/>
-      <c r="AB7" s="165"/>
-      <c r="AC7" s="166"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
+      <c r="M7" s="156"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="156"/>
+      <c r="W7" s="156"/>
+      <c r="X7" s="156"/>
+      <c r="Y7" s="156"/>
+      <c r="Z7" s="156"/>
+      <c r="AA7" s="156"/>
+      <c r="AB7" s="156"/>
+      <c r="AC7" s="157"/>
     </row>
     <row r="8" spans="1:29" s="35" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="72"/>
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="176" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="167" t="s">
+      <c r="C8" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="167" t="s">
+      <c r="D8" s="172" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="169" t="s">
+      <c r="E8" s="174" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="173" t="s">
+      <c r="F8" s="167" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="176" t="s">
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="170" t="s">
         <v>149</v>
       </c>
-      <c r="O8" s="177"/>
-      <c r="P8" s="177"/>
-      <c r="Q8" s="177"/>
-      <c r="R8" s="177"/>
-      <c r="S8" s="177"/>
-      <c r="T8" s="177"/>
-      <c r="U8" s="177"/>
-      <c r="V8" s="173" t="s">
+      <c r="O8" s="171"/>
+      <c r="P8" s="171"/>
+      <c r="Q8" s="171"/>
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
+      <c r="U8" s="171"/>
+      <c r="V8" s="167" t="s">
         <v>150</v>
       </c>
-      <c r="W8" s="174"/>
-      <c r="X8" s="174"/>
-      <c r="Y8" s="174"/>
-      <c r="Z8" s="174"/>
-      <c r="AA8" s="174"/>
-      <c r="AB8" s="174"/>
-      <c r="AC8" s="175"/>
+      <c r="W8" s="168"/>
+      <c r="X8" s="168"/>
+      <c r="Y8" s="168"/>
+      <c r="Z8" s="168"/>
+      <c r="AA8" s="168"/>
+      <c r="AB8" s="168"/>
+      <c r="AC8" s="169"/>
     </row>
     <row r="9" spans="1:29" s="3" customFormat="1" ht="23" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="73"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="170"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
+      <c r="E9" s="175"/>
       <c r="F9" s="77" t="s">
         <v>267</v>
       </c>
@@ -20924,12 +20924,12 @@
     </row>
     <row r="130" spans="1:29" s="2" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A130" s="74"/>
-      <c r="B130" s="138" t="s">
+      <c r="B130" s="159" t="s">
         <v>305</v>
       </c>
-      <c r="C130" s="139"/>
-      <c r="D130" s="139"/>
-      <c r="E130" s="139"/>
+      <c r="C130" s="160"/>
+      <c r="D130" s="160"/>
+      <c r="E130" s="160"/>
       <c r="F130" s="66">
         <v>105153</v>
       </c>
@@ -21004,12 +21004,12 @@
       </c>
     </row>
     <row r="131" spans="1:29" s="74" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="B131" s="137" t="s">
+      <c r="B131" s="158" t="s">
         <v>309</v>
       </c>
-      <c r="C131" s="137"/>
-      <c r="D131" s="137"/>
-      <c r="E131" s="137"/>
+      <c r="C131" s="158"/>
+      <c r="D131" s="158"/>
+      <c r="E131" s="158"/>
       <c r="K131" s="71"/>
       <c r="L131" s="71"/>
       <c r="M131" s="71"/>
@@ -22443,6 +22443,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B131:E131"/>
+    <mergeCell ref="B2:E7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:M8"/>
     <mergeCell ref="F2:AC2"/>
     <mergeCell ref="F3:AC3"/>
@@ -22451,13 +22458,6 @@
     <mergeCell ref="F6:AC6"/>
     <mergeCell ref="N8:U8"/>
     <mergeCell ref="V8:AC8"/>
-    <mergeCell ref="B131:E131"/>
-    <mergeCell ref="B2:E7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -31462,21 +31462,6 @@
   </sheetData>
   <autoFilter ref="A2:EV24"/>
   <mergeCells count="25">
-    <mergeCell ref="DY1:EA1"/>
-    <mergeCell ref="EB1:EH1"/>
-    <mergeCell ref="CT1:CY1"/>
-    <mergeCell ref="CZ1:DA1"/>
-    <mergeCell ref="DB1:DF1"/>
-    <mergeCell ref="DG1:DL1"/>
-    <mergeCell ref="DM1:DP1"/>
-    <mergeCell ref="DQ1:DX1"/>
-    <mergeCell ref="BM1:BY1"/>
-    <mergeCell ref="F1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="AU1:BC1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="AD1:AN1"/>
-    <mergeCell ref="AO1:AT1"/>
     <mergeCell ref="EI1:EO1"/>
     <mergeCell ref="EP1:EV1"/>
     <mergeCell ref="C1:C2"/>
@@ -31487,6 +31472,21 @@
     <mergeCell ref="BZ1:CQ1"/>
     <mergeCell ref="CR1:CS1"/>
     <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BY1"/>
+    <mergeCell ref="F1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="AU1:BC1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="AD1:AN1"/>
+    <mergeCell ref="AO1:AT1"/>
+    <mergeCell ref="DY1:EA1"/>
+    <mergeCell ref="EB1:EH1"/>
+    <mergeCell ref="CT1:CY1"/>
+    <mergeCell ref="CZ1:DA1"/>
+    <mergeCell ref="DB1:DF1"/>
+    <mergeCell ref="DG1:DL1"/>
+    <mergeCell ref="DM1:DP1"/>
+    <mergeCell ref="DQ1:DX1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -31518,224 +31518,224 @@
   <sheetData>
     <row r="1" spans="1:29" s="88" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:29" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B2" s="196"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="205" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="191" t="s">
         <v>301</v>
       </c>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="206"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="206"/>
-      <c r="AB2" s="206"/>
-      <c r="AC2" s="207"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="192"/>
+      <c r="O2" s="192"/>
+      <c r="P2" s="192"/>
+      <c r="Q2" s="192"/>
+      <c r="R2" s="192"/>
+      <c r="S2" s="192"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
+      <c r="V2" s="192"/>
+      <c r="W2" s="192"/>
+      <c r="X2" s="192"/>
+      <c r="Y2" s="192"/>
+      <c r="Z2" s="192"/>
+      <c r="AA2" s="192"/>
+      <c r="AB2" s="192"/>
+      <c r="AC2" s="193"/>
     </row>
     <row r="3" spans="1:29" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="199"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="208" t="s">
+      <c r="B3" s="185"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="194" t="s">
         <v>302</v>
       </c>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
-      <c r="N3" s="209"/>
-      <c r="O3" s="209"/>
-      <c r="P3" s="209"/>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="209"/>
-      <c r="T3" s="209"/>
-      <c r="U3" s="209"/>
-      <c r="V3" s="209"/>
-      <c r="W3" s="209"/>
-      <c r="X3" s="209"/>
-      <c r="Y3" s="209"/>
-      <c r="Z3" s="209"/>
-      <c r="AA3" s="209"/>
-      <c r="AB3" s="209"/>
-      <c r="AC3" s="210"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
+      <c r="M3" s="195"/>
+      <c r="N3" s="195"/>
+      <c r="O3" s="195"/>
+      <c r="P3" s="195"/>
+      <c r="Q3" s="195"/>
+      <c r="R3" s="195"/>
+      <c r="S3" s="195"/>
+      <c r="T3" s="195"/>
+      <c r="U3" s="195"/>
+      <c r="V3" s="195"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="195"/>
+      <c r="Y3" s="195"/>
+      <c r="Z3" s="195"/>
+      <c r="AA3" s="195"/>
+      <c r="AB3" s="195"/>
+      <c r="AC3" s="196"/>
     </row>
     <row r="4" spans="1:29" s="89" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B4" s="199"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="208" t="s">
+      <c r="B4" s="185"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="194" t="s">
         <v>303</v>
       </c>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="209"/>
-      <c r="L4" s="209"/>
-      <c r="M4" s="209"/>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
-      <c r="P4" s="209"/>
-      <c r="Q4" s="209"/>
-      <c r="R4" s="209"/>
-      <c r="S4" s="209"/>
-      <c r="T4" s="209"/>
-      <c r="U4" s="209"/>
-      <c r="V4" s="209"/>
-      <c r="W4" s="209"/>
-      <c r="X4" s="209"/>
-      <c r="Y4" s="209"/>
-      <c r="Z4" s="209"/>
-      <c r="AA4" s="209"/>
-      <c r="AB4" s="209"/>
-      <c r="AC4" s="210"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="195"/>
+      <c r="AC4" s="196"/>
     </row>
     <row r="5" spans="1:29" s="89" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="199"/>
-      <c r="C5" s="200"/>
-      <c r="D5" s="200"/>
-      <c r="E5" s="201"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="187"/>
       <c r="F5" s="90"/>
       <c r="AC5" s="91"/>
     </row>
     <row r="6" spans="1:29" s="89" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="199"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="211" t="s">
+      <c r="B6" s="185"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="197" t="s">
         <v>304</v>
       </c>
-      <c r="G6" s="212"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="212"/>
-      <c r="K6" s="212"/>
-      <c r="L6" s="212"/>
-      <c r="M6" s="212"/>
-      <c r="N6" s="212"/>
-      <c r="O6" s="212"/>
-      <c r="P6" s="212"/>
-      <c r="Q6" s="212"/>
-      <c r="R6" s="212"/>
-      <c r="S6" s="212"/>
-      <c r="T6" s="212"/>
-      <c r="U6" s="212"/>
-      <c r="V6" s="212"/>
-      <c r="W6" s="212"/>
-      <c r="X6" s="212"/>
-      <c r="Y6" s="212"/>
-      <c r="Z6" s="212"/>
-      <c r="AA6" s="212"/>
-      <c r="AB6" s="212"/>
-      <c r="AC6" s="213"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="198"/>
+      <c r="I6" s="198"/>
+      <c r="J6" s="198"/>
+      <c r="K6" s="198"/>
+      <c r="L6" s="198"/>
+      <c r="M6" s="198"/>
+      <c r="N6" s="198"/>
+      <c r="O6" s="198"/>
+      <c r="P6" s="198"/>
+      <c r="Q6" s="198"/>
+      <c r="R6" s="198"/>
+      <c r="S6" s="198"/>
+      <c r="T6" s="198"/>
+      <c r="U6" s="198"/>
+      <c r="V6" s="198"/>
+      <c r="W6" s="198"/>
+      <c r="X6" s="198"/>
+      <c r="Y6" s="198"/>
+      <c r="Z6" s="198"/>
+      <c r="AA6" s="198"/>
+      <c r="AB6" s="198"/>
+      <c r="AC6" s="199"/>
     </row>
     <row r="7" spans="1:29" s="89" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="202"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="214" t="s">
+      <c r="B7" s="188"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="200" t="s">
         <v>300</v>
       </c>
-      <c r="G7" s="215"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="215"/>
-      <c r="N7" s="215"/>
-      <c r="O7" s="215"/>
-      <c r="P7" s="215"/>
-      <c r="Q7" s="215"/>
-      <c r="R7" s="215"/>
-      <c r="S7" s="215"/>
-      <c r="T7" s="215"/>
-      <c r="U7" s="215"/>
-      <c r="V7" s="215"/>
-      <c r="W7" s="215"/>
-      <c r="X7" s="215"/>
-      <c r="Y7" s="215"/>
-      <c r="Z7" s="215"/>
-      <c r="AA7" s="215"/>
-      <c r="AB7" s="215"/>
-      <c r="AC7" s="216"/>
+      <c r="G7" s="201"/>
+      <c r="H7" s="201"/>
+      <c r="I7" s="201"/>
+      <c r="J7" s="201"/>
+      <c r="K7" s="201"/>
+      <c r="L7" s="201"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="201"/>
+      <c r="Q7" s="201"/>
+      <c r="R7" s="201"/>
+      <c r="S7" s="201"/>
+      <c r="T7" s="201"/>
+      <c r="U7" s="201"/>
+      <c r="V7" s="201"/>
+      <c r="W7" s="201"/>
+      <c r="X7" s="201"/>
+      <c r="Y7" s="201"/>
+      <c r="Z7" s="201"/>
+      <c r="AA7" s="201"/>
+      <c r="AB7" s="201"/>
+      <c r="AC7" s="202"/>
     </row>
     <row r="8" spans="1:29" s="93" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92"/>
-      <c r="B8" s="188" t="s">
+      <c r="B8" s="209" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C8" s="211" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="190" t="s">
+      <c r="D8" s="211" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="192" t="s">
+      <c r="E8" s="213" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="182" t="s">
+      <c r="F8" s="203" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="183"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="183"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="183"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="194" t="s">
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="205"/>
+      <c r="N8" s="215" t="s">
         <v>149</v>
       </c>
-      <c r="O8" s="195"/>
-      <c r="P8" s="195"/>
-      <c r="Q8" s="195"/>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="195"/>
-      <c r="U8" s="195"/>
-      <c r="V8" s="182" t="s">
+      <c r="O8" s="216"/>
+      <c r="P8" s="216"/>
+      <c r="Q8" s="216"/>
+      <c r="R8" s="216"/>
+      <c r="S8" s="216"/>
+      <c r="T8" s="216"/>
+      <c r="U8" s="216"/>
+      <c r="V8" s="203" t="s">
         <v>150</v>
       </c>
-      <c r="W8" s="183"/>
-      <c r="X8" s="183"/>
-      <c r="Y8" s="183"/>
-      <c r="Z8" s="183"/>
-      <c r="AA8" s="183"/>
-      <c r="AB8" s="183"/>
-      <c r="AC8" s="184"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="204"/>
+      <c r="Y8" s="204"/>
+      <c r="Z8" s="204"/>
+      <c r="AA8" s="204"/>
+      <c r="AB8" s="204"/>
+      <c r="AC8" s="205"/>
     </row>
     <row r="9" spans="1:29" s="103" customFormat="1" ht="23" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="94"/>
-      <c r="B9" s="189"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="193"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="214"/>
       <c r="F9" s="97" t="s">
         <v>267</v>
       </c>
@@ -42130,12 +42130,12 @@
       </c>
     </row>
     <row r="130" spans="2:29" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="185" t="s">
+      <c r="B130" s="206" t="s">
         <v>305</v>
       </c>
-      <c r="C130" s="186"/>
-      <c r="D130" s="186"/>
-      <c r="E130" s="186"/>
+      <c r="C130" s="207"/>
+      <c r="D130" s="207"/>
+      <c r="E130" s="207"/>
       <c r="F130" s="124">
         <f>SUM(F10:F129)</f>
         <v>122526</v>
@@ -42234,12 +42234,12 @@
       </c>
     </row>
     <row r="131" spans="2:29" s="104" customFormat="1" ht="13" x14ac:dyDescent="0.15">
-      <c r="B131" s="187" t="s">
+      <c r="B131" s="208" t="s">
         <v>309</v>
       </c>
-      <c r="C131" s="187"/>
-      <c r="D131" s="187"/>
-      <c r="E131" s="187"/>
+      <c r="C131" s="208"/>
+      <c r="D131" s="208"/>
+      <c r="E131" s="208"/>
       <c r="K131" s="88"/>
       <c r="L131" s="88"/>
       <c r="M131" s="88"/>
@@ -43676,12 +43676,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B2:E7"/>
-    <mergeCell ref="F2:AC2"/>
-    <mergeCell ref="F3:AC3"/>
-    <mergeCell ref="F4:AC4"/>
-    <mergeCell ref="F6:AC6"/>
-    <mergeCell ref="F7:AC7"/>
     <mergeCell ref="V8:AC8"/>
     <mergeCell ref="B130:E130"/>
     <mergeCell ref="B131:E131"/>
@@ -43691,6 +43685,12 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:M8"/>
     <mergeCell ref="N8:U8"/>
+    <mergeCell ref="B2:E7"/>
+    <mergeCell ref="F2:AC2"/>
+    <mergeCell ref="F3:AC3"/>
+    <mergeCell ref="F4:AC4"/>
+    <mergeCell ref="F6:AC6"/>
+    <mergeCell ref="F7:AC7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43703,7 +43703,7 @@
   <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
